--- a/biology/Médecine/Astrid_Stückelberger/Astrid_Stückelberger.xlsx
+++ b/biology/Médecine/Astrid_Stückelberger/Astrid_Stückelberger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Astrid_St%C3%BCckelberger</t>
+          <t>Astrid_Stückelberger</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astrid Stückelberger, est une universitaire et chercheuse suisse, spécialiste du vieillissement et de la gériatrie. Durant la pandémie de Covid-19, elle se fait connaître par ses prises de position complotistes et sa contribution à la désinformation sur la pandémie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Astrid_St%C3%BCckelberger</t>
+          <t>Astrid_Stückelberger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son père est suisse allemand ; sa mère, norvégienne[1].
-En 2000, elle soutient une thèse de doctorat en psychologie[2] de la faculté de psychologie et des sciences de l’éducation de l’Université de Genève[3], puis en 2013 une thèse de privat-docent, intitulée « Vieillissement et santé : entre population, individu et politique approche multidimensionnelle et interdisciplinaire basée sur les évidences scientifiques et politiques »[4], qui lui permet d'enseigner à l'Université de Genève, fonction « bénévole non rémunérée et à durée limitée »[3],[5] jusqu'à l'été 2016[3].
-Elle habite le canton de Genève[6].
-Travaux sur le vieillissement
-Elle a été ensuite chargée de cours à l'Université de Lausanne sur des thématiques autour du vieillissement[7]. 
-Elle est coresponsable de 1992 à 1999 du Programme national de recherche « Vieillesse » (PNR 32) du Fonds national suisse de la recherche scientifique[8].
-Pandémie de Covid-19
-Dès 2020, elle s'est positionnée au sein des mouvements d'opposition aux mesures de lutte contre la pandémie de Covid-19[9],[10]. Elle se positionne également dans la controverse sur la vaccination[11]. Mise en cause pour sa contribution à la désinformation sur la pandémie de Covid-19[12], elle apparaît brièvement dans le documentaire conspirationniste Hold-up en 2020[7],[13], puis dans le second volet Hold on[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son père est suisse allemand ; sa mère, norvégienne.
+En 2000, elle soutient une thèse de doctorat en psychologie de la faculté de psychologie et des sciences de l’éducation de l’Université de Genève, puis en 2013 une thèse de privat-docent, intitulée « Vieillissement et santé : entre population, individu et politique approche multidimensionnelle et interdisciplinaire basée sur les évidences scientifiques et politiques », qui lui permet d'enseigner à l'Université de Genève, fonction « bénévole non rémunérée et à durée limitée », jusqu'à l'été 2016.
+Elle habite le canton de Genève.
 </t>
         </is>
       </c>
@@ -531,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Astrid_St%C3%BCckelberger</t>
+          <t>Astrid_Stückelberger</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +555,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Travaux sur le vieillissement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été ensuite chargée de cours à l'Université de Lausanne sur des thématiques autour du vieillissement. 
+Elle est coresponsable de 1992 à 1999 du Programme national de recherche « Vieillesse » (PNR 32) du Fonds national suisse de la recherche scientifique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Astrid_Stückelberger</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_St%C3%BCckelberger</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pandémie de Covid-19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès 2020, elle s'est positionnée au sein des mouvements d'opposition aux mesures de lutte contre la pandémie de Covid-19,. Elle se positionne également dans la controverse sur la vaccination. Mise en cause pour sa contribution à la désinformation sur la pandémie de Covid-19, elle apparaît brièvement dans le documentaire conspirationniste Hold-up en 2020 puis dans le second volet Hold on.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Astrid_Stückelberger</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_St%C3%BCckelberger</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>en français
 Le guide des médecines anti-âge, Éditions Favre, 2012.
